--- a/data/prueba.xlsx
+++ b/data/prueba.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Documents\Proyectos\gantt-plotter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA8408B-2FA2-494F-B0D7-E09479F9A277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD6656F-B9A4-4460-8402-B17CA4F5CD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{C624DFD4-34F5-B04E-9BD4-08DD160B2705}"/>
+    <workbookView xWindow="6465" yWindow="7170" windowWidth="28800" windowHeight="15345" firstSheet="3" activeTab="3" xr2:uid="{C624DFD4-34F5-B04E-9BD4-08DD160B2705}"/>
   </bookViews>
   <sheets>
     <sheet name="verión 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>Tareas</t>
   </si>
@@ -81,24 +81,6 @@
   </si>
   <si>
     <t xml:space="preserve">Participantes SENIA. </t>
-  </si>
-  <si>
-    <t>task_group</t>
-  </si>
-  <si>
-    <t>task_description</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t>end_date</t>
   </si>
   <si>
     <t>Fase 1</t>
@@ -153,6 +135,21 @@
   </si>
   <si>
     <t>Gestión encargos/entregas de actividad "Licencias de software". Incluir en el circuito de validaciones al I2T</t>
+  </si>
+  <si>
+    <t>Fase</t>
+  </si>
+  <si>
+    <t>Fecha fin</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Duración</t>
+  </si>
+  <si>
+    <t>Fecha inicio</t>
   </si>
 </sst>
 </file>
@@ -738,7 +735,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1040,18 +1037,18 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.8984375" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" customWidth="1"/>
+    <col min="1" max="1" width="90.875" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.3984375" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" customWidth="1"/>
-    <col min="6" max="17" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="17" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:25" s="2" customFormat="1" ht="48.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:25" s="2" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1145,7 @@
         <v>45501</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
@@ -1192,7 +1189,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
@@ -1291,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
@@ -1390,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
@@ -1489,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>8</v>
       </c>
@@ -1588,7 +1585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
@@ -1688,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>10</v>
       </c>
@@ -1788,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:25" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
@@ -1888,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
     </row>
@@ -1921,27 +1918,27 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.3984375" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" hidden="1" customWidth="1"/>
-    <col min="6" max="9" width="14.3984375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="71.375" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" hidden="1" customWidth="1"/>
+    <col min="6" max="9" width="14.375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="16.09765625" customWidth="1"/>
-    <col min="12" max="12" width="15.59765625" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="12" max="12" width="15.625" customWidth="1"/>
     <col min="13" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="16.09765625" customWidth="1"/>
+    <col min="15" max="15" width="16.125" customWidth="1"/>
     <col min="16" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="15.59765625" customWidth="1"/>
-    <col min="19" max="19" width="15.8984375" customWidth="1"/>
-    <col min="20" max="20" width="16.09765625" customWidth="1"/>
+    <col min="18" max="18" width="15.625" customWidth="1"/>
+    <col min="19" max="19" width="15.875" customWidth="1"/>
+    <col min="20" max="20" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:25" s="2" customFormat="1" ht="48.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:25" s="2" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -2038,7 +2035,7 @@
         <v>45501</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
@@ -2080,7 +2077,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
@@ -2179,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
@@ -2278,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="46.8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>7</v>
       </c>
@@ -2378,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="70.2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>8</v>
       </c>
@@ -2478,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
@@ -2578,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>10</v>
       </c>
@@ -2678,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:25" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
@@ -2778,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
     </row>
@@ -2812,26 +2809,26 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" customWidth="1"/>
+    <col min="1" max="1" width="82.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
-    <col min="5" max="8" width="11.09765625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.8984375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="11.59765625" customWidth="1"/>
-    <col min="12" max="12" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="8" width="11.125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:25" s="2" customFormat="1" ht="48.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:25" s="2" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -2928,7 +2925,7 @@
         <v>45501</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
@@ -2979,7 +2976,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
@@ -3078,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
@@ -3177,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="46.8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>7</v>
       </c>
@@ -3277,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="46.8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>8</v>
       </c>
@@ -3377,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
@@ -3477,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>10</v>
       </c>
@@ -3577,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:25" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
@@ -3677,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
     </row>
@@ -3704,68 +3701,68 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37189E17-0E96-D744-8122-0E4CAB06746A}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.296875" customWidth="1"/>
-    <col min="5" max="5" width="15.796875" customWidth="1"/>
+    <col min="1" max="1" width="76.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="15.796875" customWidth="1"/>
-    <col min="9" max="9" width="15.09765625" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="15.8984375" customWidth="1"/>
-    <col min="13" max="13" width="9.09765625" customWidth="1"/>
-    <col min="14" max="17" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.8984375" customWidth="1"/>
-    <col min="24" max="24" width="13.59765625" customWidth="1"/>
-    <col min="25" max="25" width="13.8984375" customWidth="1"/>
-    <col min="26" max="31" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="41" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.875" customWidth="1"/>
+    <col min="13" max="13" width="9.125" customWidth="1"/>
+    <col min="14" max="17" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.875" customWidth="1"/>
+    <col min="24" max="24" width="13.625" customWidth="1"/>
+    <col min="25" max="25" width="13.875" customWidth="1"/>
+    <col min="26" max="31" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="41" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="42" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A2" s="42" t="s">
-        <v>20</v>
       </c>
       <c r="B2" s="41" t="e">
         <f>- B5Permitir modificación en las entregas: importe del servicio y fecha de entrega, y añadir documentación adicional</f>
         <v>#NAME?</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D2" s="22">
         <v>5</v>
@@ -3774,19 +3771,19 @@
         <v>45357</v>
       </c>
       <c r="F2" s="21">
-        <f>E2+D2*7</f>
+        <f t="shared" ref="F2:F10" si="0">E2+D2*7</f>
         <v>45392</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="42" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D3" s="23">
         <v>5</v>
@@ -3795,19 +3792,19 @@
         <v>45357</v>
       </c>
       <c r="F3" s="21">
-        <f>E3+D3*7</f>
+        <f t="shared" si="0"/>
         <v>45392</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A4" s="42" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D4" s="22">
         <v>5</v>
@@ -3816,19 +3813,19 @@
         <v>45357</v>
       </c>
       <c r="F4" s="21">
-        <f>E4+D4*7</f>
+        <f t="shared" si="0"/>
         <v>45392</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>29</v>
       </c>
       <c r="D5" s="26">
         <v>7</v>
@@ -3838,19 +3835,19 @@
         <v>45392</v>
       </c>
       <c r="F5" s="25">
-        <f>E5+D5*7</f>
+        <f t="shared" si="0"/>
         <v>45441</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="D6" s="40">
         <v>9</v>
@@ -3860,19 +3857,19 @@
         <v>45392</v>
       </c>
       <c r="F6" s="39">
-        <f>E6+D6*7</f>
+        <f t="shared" si="0"/>
         <v>45455</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="42" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D7" s="22">
         <v>6</v>
@@ -3882,19 +3879,19 @@
         <v>45441</v>
       </c>
       <c r="F7" s="21">
-        <f>E7+D7*7</f>
+        <f t="shared" si="0"/>
         <v>45483</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="42" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6">
         <v>2</v>
@@ -3903,19 +3900,19 @@
         <v>45476</v>
       </c>
       <c r="F8" s="5">
-        <f>E8+D8*7</f>
+        <f t="shared" si="0"/>
         <v>45490</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="42" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D9" s="38">
         <v>2</v>
@@ -3925,19 +3922,19 @@
         <v>45490</v>
       </c>
       <c r="F9" s="5">
-        <f>E9+D9*7</f>
+        <f t="shared" si="0"/>
         <v>45504</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="42" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6">
         <v>3</v>
@@ -3946,7 +3943,7 @@
         <v>45476</v>
       </c>
       <c r="F10" s="11">
-        <f>E10+D10*7</f>
+        <f t="shared" si="0"/>
         <v>45497</v>
       </c>
     </row>
@@ -3967,6 +3964,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7d459365-4b1c-41cf-a2f5-a7ae931223f6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010002883533AE32F64C9675E7DA9354FA04" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="414d22cdd6e8a79c819460a078b51495">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5702931a-f435-46f5-bcc6-13be265680db" xmlns:ns4="7d459365-4b1c-41cf-a2f5-a7ae931223f6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b8d5eb72dab0e66e37ef0d1ac5ead65" ns3:_="" ns4:_="">
     <xsd:import namespace="5702931a-f435-46f5-bcc6-13be265680db"/>
@@ -4205,14 +4210,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7d459365-4b1c-41cf-a2f5-a7ae931223f6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1C13980-4398-4D2D-841F-407A6B8FF573}">
   <ds:schemaRefs>
@@ -4222,6 +4219,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CF88909-9F44-4165-BCD6-AD630B74B330}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7d459365-4b1c-41cf-a2f5-a7ae931223f6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0DABBC4-659F-447D-93E2-7D5D99998851}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4238,14 +4245,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CF88909-9F44-4165-BCD6-AD630B74B330}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7d459365-4b1c-41cf-a2f5-a7ae931223f6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/prueba.xlsx
+++ b/data/prueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Documents\Proyectos\gantt-plotter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD6656F-B9A4-4460-8402-B17CA4F5CD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F11B58-101A-4577-8D1A-63B7D7B2B0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="7170" windowWidth="28800" windowHeight="15345" firstSheet="3" activeTab="3" xr2:uid="{C624DFD4-34F5-B04E-9BD4-08DD160B2705}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{C624DFD4-34F5-B04E-9BD4-08DD160B2705}"/>
   </bookViews>
   <sheets>
     <sheet name="verión 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>Tareas</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Fecha inicio</t>
+  </si>
+  <si>
+    <t>Permitir modificación en las entregas: importe del servicio y fecha de entrega, y añadir documentación adicional</t>
   </si>
 </sst>
 </file>
@@ -735,7 +738,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1037,18 +1040,18 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="90.875" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="90.8984375" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="17" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" customWidth="1"/>
+    <col min="6" max="17" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:25" s="2" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:25" s="2" customFormat="1" ht="48.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1145,7 +1148,7 @@
         <v>45501</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
@@ -1189,7 +1192,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
         <v>8</v>
       </c>
@@ -1585,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
@@ -1685,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="18" t="s">
         <v>10</v>
       </c>
@@ -1785,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
     </row>
@@ -1918,27 +1921,27 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="71.375" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" hidden="1" customWidth="1"/>
-    <col min="6" max="9" width="14.375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="71.3984375" customWidth="1"/>
+    <col min="2" max="2" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" hidden="1" customWidth="1"/>
+    <col min="6" max="9" width="14.3984375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
-    <col min="12" max="12" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="16.09765625" customWidth="1"/>
+    <col min="12" max="12" width="15.59765625" customWidth="1"/>
     <col min="13" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="16.125" customWidth="1"/>
+    <col min="15" max="15" width="16.09765625" customWidth="1"/>
     <col min="16" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="15.625" customWidth="1"/>
-    <col min="19" max="19" width="15.875" customWidth="1"/>
-    <col min="20" max="20" width="16.125" customWidth="1"/>
+    <col min="18" max="18" width="15.59765625" customWidth="1"/>
+    <col min="19" max="19" width="15.8984375" customWidth="1"/>
+    <col min="20" max="20" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:25" s="2" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:25" s="2" customFormat="1" ht="48.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>45501</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
@@ -2077,7 +2080,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
@@ -2176,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
@@ -2275,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A7" s="24" t="s">
         <v>7</v>
       </c>
@@ -2375,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" ht="70.2" x14ac:dyDescent="0.45">
       <c r="A8" s="24" t="s">
         <v>8</v>
       </c>
@@ -2475,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
@@ -2575,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="18" t="s">
         <v>10</v>
       </c>
@@ -2675,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
@@ -2775,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
     </row>
@@ -2809,26 +2812,26 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="82.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="82.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="8" width="11.125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" customWidth="1"/>
-    <col min="11" max="11" width="11.625" customWidth="1"/>
-    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="5" max="8" width="11.09765625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.8984375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" customWidth="1"/>
+    <col min="11" max="11" width="11.59765625" customWidth="1"/>
+    <col min="12" max="12" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:25" s="2" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:25" s="2" customFormat="1" ht="48.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>45501</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
@@ -2976,7 +2979,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
@@ -3075,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
@@ -3174,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A7" s="24" t="s">
         <v>7</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A8" s="24" t="s">
         <v>8</v>
       </c>
@@ -3374,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
@@ -3474,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="18" t="s">
         <v>10</v>
       </c>
@@ -3574,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
@@ -3674,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
     </row>
@@ -3703,37 +3706,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37189E17-0E96-D744-8122-0E4CAB06746A}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.25" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="151" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" customWidth="1"/>
+    <col min="9" max="9" width="15.09765625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="15.875" customWidth="1"/>
-    <col min="13" max="13" width="9.125" customWidth="1"/>
-    <col min="14" max="17" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.875" customWidth="1"/>
-    <col min="24" max="24" width="13.625" customWidth="1"/>
-    <col min="25" max="25" width="13.875" customWidth="1"/>
-    <col min="26" max="31" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="32" max="41" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.8984375" customWidth="1"/>
+    <col min="13" max="13" width="9.09765625" customWidth="1"/>
+    <col min="14" max="17" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.8984375" customWidth="1"/>
+    <col min="24" max="24" width="13.59765625" customWidth="1"/>
+    <col min="25" max="25" width="13.8984375" customWidth="1"/>
+    <col min="26" max="31" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="41" width="14.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>32</v>
       </c>
@@ -3753,13 +3756,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="41" t="e">
-        <f>- B5Permitir modificación en las entregas: importe del servicio y fecha de entrega, y añadir documentación adicional</f>
-        <v>#NAME?</v>
+      <c r="B2" s="41" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>23</v>
@@ -3775,7 +3777,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A3" s="42" t="s">
         <v>15</v>
       </c>
@@ -3796,7 +3798,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A4" s="42" t="s">
         <v>16</v>
       </c>
@@ -3817,7 +3819,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A5" s="42" t="s">
         <v>17</v>
       </c>
@@ -3839,7 +3841,7 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A6" s="42" t="s">
         <v>18</v>
       </c>
@@ -3861,7 +3863,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="42" t="s">
         <v>19</v>
       </c>
@@ -3883,7 +3885,7 @@
         <v>45483</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="42" t="s">
         <v>20</v>
       </c>
@@ -3904,7 +3906,7 @@
         <v>45490</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="42" t="s">
         <v>21</v>
       </c>
@@ -3926,7 +3928,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="42" t="s">
         <v>22</v>
       </c>
@@ -3955,23 +3957,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7d459365-4b1c-41cf-a2f5-a7ae931223f6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010002883533AE32F64C9675E7DA9354FA04" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="414d22cdd6e8a79c819460a078b51495">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5702931a-f435-46f5-bcc6-13be265680db" xmlns:ns4="7d459365-4b1c-41cf-a2f5-a7ae931223f6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b8d5eb72dab0e66e37ef0d1ac5ead65" ns3:_="" ns4:_="">
     <xsd:import namespace="5702931a-f435-46f5-bcc6-13be265680db"/>
@@ -4210,25 +4195,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1C13980-4398-4D2D-841F-407A6B8FF573}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7d459365-4b1c-41cf-a2f5-a7ae931223f6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CF88909-9F44-4165-BCD6-AD630B74B330}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7d459365-4b1c-41cf-a2f5-a7ae931223f6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0DABBC4-659F-447D-93E2-7D5D99998851}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4245,4 +4229,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CF88909-9F44-4165-BCD6-AD630B74B330}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7d459365-4b1c-41cf-a2f5-a7ae931223f6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1C13980-4398-4D2D-841F-407A6B8FF573}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>